--- a/final data.xlsx
+++ b/final data.xlsx
@@ -14,12 +14,13 @@
   <sheets>
     <sheet name="Final data" sheetId="1" r:id="rId1"/>
     <sheet name="MT vs ID" sheetId="2" r:id="rId2"/>
-    <sheet name="ID vs IP" sheetId="3" r:id="rId3"/>
-    <sheet name="regression 1" sheetId="4" r:id="rId4"/>
-    <sheet name="regression2 (average MT)" sheetId="5" r:id="rId5"/>
+    <sheet name="Avg MT vs. ID" sheetId="6" r:id="rId3"/>
+    <sheet name="ID vs IP" sheetId="3" r:id="rId4"/>
+    <sheet name="regression 1" sheetId="4" r:id="rId5"/>
+    <sheet name="regression2 (average MT)" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>X position</t>
   </si>
@@ -1501,6 +1502,532 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
+              <a:t>Average Movement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Time vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Index of difficulty</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet11!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Index of difficulty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet11!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>925.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>908.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1042.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>633.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>725.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>815.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet11!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4594316186372978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3923174227787607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5849625007211561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7004397181410922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4594316186372978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="569844032"/>
+        <c:axId val="569844424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="569844032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Movement Time for a same size target across the same distance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569844424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="569844424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Index</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Difficulty (ID)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569844032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Index of Difficulty</a:t>
             </a:r>
             <a:r>
@@ -2678,6 +3205,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
@@ -3715,6 +4248,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3753,6 +4802,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3800,6 +4886,7 @@
       <sheetName val="Sheet5"/>
       <sheetName val="Full data"/>
       <sheetName val="MT vs ID"/>
+      <sheetName val="Sheet11"/>
       <sheetName val="IP vs ID"/>
       <sheetName val="regression1"/>
       <sheetName val="regression2"/>
@@ -4781,6 +5868,61 @@
       <sheetData sheetId="7">
         <row r="1">
           <cell r="B1" t="str">
+            <v>Index of difficulty</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>925.3</v>
+          </cell>
+          <cell r="B2">
+            <v>3.4594316186372978</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>908.15</v>
+          </cell>
+          <cell r="B3">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1042.5</v>
+          </cell>
+          <cell r="B4">
+            <v>4.3923174227787607</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>633.65</v>
+          </cell>
+          <cell r="B5">
+            <v>2.5849625007211561</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>725.45</v>
+          </cell>
+          <cell r="B6">
+            <v>2.7004397181410922</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>815.45</v>
+          </cell>
+          <cell r="B7">
+            <v>3.4594316186372978</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="B1" t="str">
             <v>Index of Performance/Throughput (IP)</v>
           </cell>
         </row>
@@ -5745,8 +6887,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10246,6 +11388,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>925.3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.4594316186372978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>908.15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1042.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.3923174227787607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>633.65</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.5849625007211561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>725.45</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.7004397181410922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>815.45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.4594316186372978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11232,12 +12446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13902,12 +15116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
